--- a/medicine/Enfance/Les_Enfants_de_Mega/Les_Enfants_de_Mega.xlsx
+++ b/medicine/Enfance/Les_Enfants_de_Mega/Les_Enfants_de_Mega.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Enfants de Méga est un diptyque de deux romans écrits par Gérard Moncomble (L'Heure du rat et La Cité Barbare), dont l'action se déroule vers l'an 2150.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mega est une cité dont la devise est « Ordre, Travail, Paix ». Au début elle était à la surface, mais ses dirigeants ont considéré que la vue des paysages et des animaux était une invitation à la distraction. La cité est donc devenue une pyramide souterraine, du niveau 1 au sommet à l'étage 500, la base, et elle ne cesse de s'agrandir, sous la direction d'Oo, la vieille femme, mère de tous à Mega grâce au secret de la Fécondité, tous sont frères et sœurs a Méga et dans chaque nom, on retrouve la lettre "O", pour rappeler la génitrice universelle, Oo. La cité est loin d'être idéale, dès que quelque chose d'inhabituel se passe (violences, cris, montées d'adrénaline...), les policiers arrivent et emprisonnent le Déviant, généralement des enfants peu habitués aux règles qui vont travailler aux Ateliers.
 Mais trois d'entre eux se sont échappés. Duroi, La Houle et Trol, à la suite de quelques rafles, ils vont devenir une bande de 10 enfants, déviants qui se baptisent les Karts, en hommage aux cimetières de voitures où ils vivent. Mais la rencontre hostile avec une autre bande détruit ce paradis. les mobs sont 15, plus âgés et roulent sur des motos qu'ils ont réparés, sous les ordres de leur chef, Rok. Duroi, chef des karts et pacifistes, ne peut empêcher l'escalade de violences et chaque bande a soif de victoires. Trol, le meilleur ami de Duroi va alors conditionner les milliers de rats des environs et en faire une armée pour exterminer les Mobs, Duroi s'enfuit sans que son autre ami, la Houle, ne puisse rien y faire. Finalement, Duroi rencontre les Mobs en déroute et sans essence, et il sympathise avec Rok. Ensembles, Duroi et les Mobs vont attirer les rats dans un piège et les noyer tous jusqu'à la réconciliation des deux bandes.
